--- a/biology/Botanique/Calendula/Calendula.xlsx
+++ b/biology/Botanique/Calendula/Calendula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calendula (les soucis) est un genre d'environ 20 espèces de plantes herbacées annuelles ou vivaces de la famille des Asteraceae, originaires de la région méditerranéenne et de Macaronésie.
-Elles mesurent généralement entre 5 et 50 cm de hauteur (rarement 70 cm)[1]. L'inflorescence est un capitule typique des Asteracées, mais solitaire. Les involucres sont partiellement soudés, en forme de coupe de 1 à 3 cm de diamètre[1] environ[1] comprenant de 13 à une quarantaine de bractées[1]. La forme globale du réceptacle floral est plate. Chaque capitule comprend de 13 à 50 fleurons ligulés (parfois jusqu'à 100 environ)[1] à corolle jaune à orangée. Les fleurons tubulés sont plus nombreux (généralement de 20 à 60, mais parfois plus de 150)[1] et de couleur jaune, rougeâtre ou violacée.
+Elles mesurent généralement entre 5 et 50 cm de hauteur (rarement 70 cm). L'inflorescence est un capitule typique des Asteracées, mais solitaire. Les involucres sont partiellement soudés, en forme de coupe de 1 à 3 cm de diamètre environ comprenant de 13 à une quarantaine de bractées. La forme globale du réceptacle floral est plate. Chaque capitule comprend de 13 à 50 fleurons ligulés (parfois jusqu'à 100 environ) à corolle jaune à orangée. Les fleurons tubulés sont plus nombreux (généralement de 20 à 60, mais parfois plus de 150) et de couleur jaune, rougeâtre ou violacée.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique Calendula date du Moyen Âge. L'étymologie provient du latin calendae premier jour du mois « probablement avec un sens analogue à calendrier, almanach, indicateur météorologique : les capitules s'ouvrent et se ferment en liaison avec l'apparition du soleil » (phénomène de nyctinastie) selon le botaniste Paul-Victor Fournier[2]. Le nom vernaculaire de « souci » rappelle ce phénomène puisqu'il dérive du bas latin solsequia (« qui suit le soleil », du latin sol, « soleil », et sequi, « suivre ») qui a donné « solsie », « soucy » puis « souci »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique Calendula date du Moyen Âge. L'étymologie provient du latin calendae premier jour du mois « probablement avec un sens analogue à calendrier, almanach, indicateur météorologique : les capitules s'ouvrent et se ferment en liaison avec l'apparition du soleil » (phénomène de nyctinastie) selon le botaniste Paul-Victor Fournier. Le nom vernaculaire de « souci » rappelle ce phénomène puisqu'il dérive du bas latin solsequia (« qui suit le soleil », du latin sol, « soleil », et sequi, « suivre ») qui a donné « solsie », « soucy » puis « souci ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (22 juillet 2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (22 juillet 2021) :
 Calendula arvensis L.
 Calendula aurantiaca Kotschy ex Boiss.
 Calendula eckerleinii Ohle
@@ -559,7 +575,7 @@
 Calendula stellata Cav.
 Calendula suffruticosa Vahl
 Calendula tripterocarpa Rupr.
-Selon Tropicos                                           (26 juin 2013)[5] (Attention liste brute contenant peut-être des synonymes) :
+Selon Tropicos                                           (26 juin 2013) (Attention liste brute contenant peut-être des synonymes) :
 Calendula algarbiensis Boiss.
 Calendula americana Mill.
 Calendula arborescens Jacq.
@@ -620,9 +636,11 @@
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, le souci symbolise l'inquiétude[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, le souci symbolise l'inquiétude.
 </t>
         </is>
       </c>
